--- a/data/pca/factorExposure/factorExposure_2017-10-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02365466470828196</v>
+        <v>0.009675451743540312</v>
       </c>
       <c r="C2">
-        <v>0.002810923190075617</v>
+        <v>0.04117594897806053</v>
       </c>
       <c r="D2">
-        <v>-0.01518711183302136</v>
+        <v>-0.02913124791868702</v>
       </c>
       <c r="E2">
-        <v>0.01359402619465615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0251265199334588</v>
+      </c>
+      <c r="F2">
+        <v>0.02553338576648915</v>
+      </c>
+      <c r="G2">
+        <v>0.02713527949494535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01321351937695682</v>
+        <v>0.04796880767976278</v>
       </c>
       <c r="C3">
-        <v>0.04809184293496296</v>
+        <v>0.07749820568983426</v>
       </c>
       <c r="D3">
-        <v>-0.01444204272025528</v>
+        <v>-0.0151632798164745</v>
       </c>
       <c r="E3">
-        <v>0.01189380329409407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08504676163613402</v>
+      </c>
+      <c r="F3">
+        <v>0.0729516199333078</v>
+      </c>
+      <c r="G3">
+        <v>0.07169739981135169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02188015271636599</v>
+        <v>0.05625965483737357</v>
       </c>
       <c r="C4">
-        <v>0.01669434804227835</v>
+        <v>0.06322335130030313</v>
       </c>
       <c r="D4">
-        <v>-0.06429135687033284</v>
+        <v>-0.02253397170202959</v>
       </c>
       <c r="E4">
-        <v>-0.01168341154823142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.009704353081100148</v>
+      </c>
+      <c r="F4">
+        <v>0.006915593308590165</v>
+      </c>
+      <c r="G4">
+        <v>0.04893045571560996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01508638903100079</v>
+        <v>0.03207109175244925</v>
       </c>
       <c r="C6">
-        <v>0.02123233086740305</v>
+        <v>0.05238948923421314</v>
       </c>
       <c r="D6">
-        <v>-0.08448681677980406</v>
+        <v>-0.0158900836313297</v>
       </c>
       <c r="E6">
-        <v>0.002491237677024656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01100179399203753</v>
+      </c>
+      <c r="F6">
+        <v>0.006652837978484876</v>
+      </c>
+      <c r="G6">
+        <v>0.03013332876974057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01024235637608665</v>
+        <v>0.01802150951743881</v>
       </c>
       <c r="C7">
-        <v>0.003930792995822456</v>
+        <v>0.03790916563978849</v>
       </c>
       <c r="D7">
-        <v>-0.04073980956588254</v>
+        <v>-0.01300443249496034</v>
       </c>
       <c r="E7">
-        <v>-0.06763925975384052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01221903521632344</v>
+      </c>
+      <c r="F7">
+        <v>0.002770733009596198</v>
+      </c>
+      <c r="G7">
+        <v>0.08082828491786626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-4.157085008979699e-05</v>
+        <v>-0.003054832003824675</v>
       </c>
       <c r="C8">
-        <v>-0.009192384818381952</v>
+        <v>0.0191735450244884</v>
       </c>
       <c r="D8">
-        <v>-0.01414112926512787</v>
+        <v>-0.004031484146665262</v>
       </c>
       <c r="E8">
-        <v>-0.005739682014462086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02149311508622559</v>
+      </c>
+      <c r="F8">
+        <v>0.02343915042817377</v>
+      </c>
+      <c r="G8">
+        <v>0.02381993611802533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01455754662974747</v>
+        <v>0.02838031764127466</v>
       </c>
       <c r="C9">
-        <v>0.01702765483891911</v>
+        <v>0.04366255005574099</v>
       </c>
       <c r="D9">
-        <v>-0.0459181571652166</v>
+        <v>-0.01598506098359299</v>
       </c>
       <c r="E9">
-        <v>-0.00197961300973125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01018367437937902</v>
+      </c>
+      <c r="F9">
+        <v>0.01505335885686648</v>
+      </c>
+      <c r="G9">
+        <v>0.04006132273458267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01002601685352219</v>
+        <v>0.09612344058222883</v>
       </c>
       <c r="C10">
-        <v>0.1522035343755525</v>
+        <v>-0.1817519908804592</v>
       </c>
       <c r="D10">
-        <v>0.129945891461662</v>
+        <v>0.01806322205193614</v>
       </c>
       <c r="E10">
-        <v>-0.02167084730169013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01419741894709693</v>
+      </c>
+      <c r="F10">
+        <v>-0.01091347287002411</v>
+      </c>
+      <c r="G10">
+        <v>0.03971120789560682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001829493466833732</v>
+        <v>0.03260207495264082</v>
       </c>
       <c r="C11">
-        <v>0.005860867544366116</v>
+        <v>0.054317685738402</v>
       </c>
       <c r="D11">
-        <v>-0.04485197980303083</v>
+        <v>-0.001803231119293129</v>
       </c>
       <c r="E11">
-        <v>0.01307357311828995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001383884697057142</v>
+      </c>
+      <c r="F11">
+        <v>0.01817166932924045</v>
+      </c>
+      <c r="G11">
+        <v>0.02243801244940318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00540695715137879</v>
+        <v>0.03093828302350798</v>
       </c>
       <c r="C12">
-        <v>0.01365877785229649</v>
+        <v>0.04599416353180445</v>
       </c>
       <c r="D12">
-        <v>-0.04765417248843958</v>
+        <v>-0.005847783303052325</v>
       </c>
       <c r="E12">
-        <v>0.004091878868522652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.004594231089895537</v>
+      </c>
+      <c r="F12">
+        <v>0.003827739118310058</v>
+      </c>
+      <c r="G12">
+        <v>0.02678112794191963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0212253337589263</v>
+        <v>0.01331889142955274</v>
       </c>
       <c r="C13">
-        <v>0.01544706811601218</v>
+        <v>0.03315133602419195</v>
       </c>
       <c r="D13">
-        <v>-0.01111574210133248</v>
+        <v>-0.02476781207571205</v>
       </c>
       <c r="E13">
-        <v>0.008112995307780818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01888189122862759</v>
+      </c>
+      <c r="F13">
+        <v>0.015738330948868</v>
+      </c>
+      <c r="G13">
+        <v>0.03375026873435726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00702837313337804</v>
+        <v>0.008463116442874693</v>
       </c>
       <c r="C14">
-        <v>0.01176312929837947</v>
+        <v>0.0273539949165045</v>
       </c>
       <c r="D14">
-        <v>-0.01805140636437123</v>
+        <v>-0.008647763445288002</v>
       </c>
       <c r="E14">
-        <v>-0.009330549256863371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006884965186988007</v>
+      </c>
+      <c r="F14">
+        <v>-0.001134573816456758</v>
+      </c>
+      <c r="G14">
+        <v>0.04043273084440181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005723579640833844</v>
+        <v>0.03038039190099224</v>
       </c>
       <c r="C16">
-        <v>0.01041852904533659</v>
+        <v>0.04462359262588174</v>
       </c>
       <c r="D16">
-        <v>-0.0513914068434117</v>
+        <v>-0.001401322532952386</v>
       </c>
       <c r="E16">
-        <v>0.007401888139199698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00398765977428899</v>
+      </c>
+      <c r="F16">
+        <v>0.008882405663079639</v>
+      </c>
+      <c r="G16">
+        <v>0.02473901961367768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01318187701473072</v>
+        <v>0.02472524627150212</v>
       </c>
       <c r="C19">
-        <v>0.02777100888325172</v>
+        <v>0.05176430650652036</v>
       </c>
       <c r="D19">
-        <v>-0.02847655384902384</v>
+        <v>-0.01610550209744235</v>
       </c>
       <c r="E19">
-        <v>-0.002579259426442173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04894154134712022</v>
+      </c>
+      <c r="F19">
+        <v>0.03186801596130342</v>
+      </c>
+      <c r="G19">
+        <v>0.0490115855703156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01019205322213987</v>
+        <v>0.01152355558605673</v>
       </c>
       <c r="C20">
-        <v>0.00560636368862757</v>
+        <v>0.03536456004405534</v>
       </c>
       <c r="D20">
-        <v>-0.01369532013886738</v>
+        <v>-0.01309154868905165</v>
       </c>
       <c r="E20">
-        <v>0.001679161960013162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02148905110425141</v>
+      </c>
+      <c r="F20">
+        <v>-0.0004428845152421759</v>
+      </c>
+      <c r="G20">
+        <v>0.03872412816157168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01390194151652838</v>
+        <v>0.01498563452917793</v>
       </c>
       <c r="C21">
-        <v>0.03739896338554844</v>
+        <v>0.03674412917690009</v>
       </c>
       <c r="D21">
-        <v>-0.02105592621174924</v>
+        <v>-0.01615196610569655</v>
       </c>
       <c r="E21">
-        <v>-0.01725631633799588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02847908796202466</v>
+      </c>
+      <c r="F21">
+        <v>0.01229108436822932</v>
+      </c>
+      <c r="G21">
+        <v>0.06013906649376555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004917948560833958</v>
+        <v>0.02478162987346405</v>
       </c>
       <c r="C24">
-        <v>0.00678949826655545</v>
+        <v>0.04738162038991907</v>
       </c>
       <c r="D24">
-        <v>-0.0460444901728999</v>
+        <v>-0.006825691902282302</v>
       </c>
       <c r="E24">
-        <v>0.007921539561574823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0004946123525508613</v>
+      </c>
+      <c r="F24">
+        <v>0.01566985669297725</v>
+      </c>
+      <c r="G24">
+        <v>0.02681896593263451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01103154593737046</v>
+        <v>0.04117783967895389</v>
       </c>
       <c r="C25">
-        <v>0.02256738624447008</v>
+        <v>0.05495329047268493</v>
       </c>
       <c r="D25">
-        <v>-0.04455432628083052</v>
+        <v>-0.0106785501042551</v>
       </c>
       <c r="E25">
-        <v>0.006750363660197414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007532422723249131</v>
+      </c>
+      <c r="F25">
+        <v>0.009085194483853351</v>
+      </c>
+      <c r="G25">
+        <v>0.03223746447417938</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02242948332011752</v>
+        <v>0.01044133013645341</v>
       </c>
       <c r="C26">
-        <v>0.00768312159566676</v>
+        <v>0.009799840570270968</v>
       </c>
       <c r="D26">
-        <v>0.003979683699034041</v>
+        <v>-0.02382063692976683</v>
       </c>
       <c r="E26">
-        <v>-0.008671656585844881</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.00579613842597623</v>
+      </c>
+      <c r="F26">
+        <v>0.003279073850005686</v>
+      </c>
+      <c r="G26">
+        <v>0.03169643592187468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02799331177235934</v>
+        <v>0.1224104150148993</v>
       </c>
       <c r="C28">
-        <v>0.2250865449382984</v>
+        <v>-0.2223132721068445</v>
       </c>
       <c r="D28">
-        <v>0.1811138892071987</v>
+        <v>0.00890018255566442</v>
       </c>
       <c r="E28">
-        <v>-0.03319892465205503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.001707979815770573</v>
+      </c>
+      <c r="F28">
+        <v>-0.01005977648989582</v>
+      </c>
+      <c r="G28">
+        <v>0.05921487447239982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00724371228609838</v>
+        <v>0.01350194489294045</v>
       </c>
       <c r="C29">
-        <v>0.01705738820686588</v>
+        <v>0.02131818660594351</v>
       </c>
       <c r="D29">
-        <v>-0.01537004498822071</v>
+        <v>-0.0073556802932799</v>
       </c>
       <c r="E29">
-        <v>-0.005111293710153363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008084399154181658</v>
+      </c>
+      <c r="F29">
+        <v>-0.01073851788048391</v>
+      </c>
+      <c r="G29">
+        <v>0.03075366811020969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02290869800213984</v>
+        <v>0.04381929698844751</v>
       </c>
       <c r="C30">
-        <v>0.001047792330816589</v>
+        <v>0.06904182571035714</v>
       </c>
       <c r="D30">
-        <v>-0.06361796169175872</v>
+        <v>-0.02715813098559763</v>
       </c>
       <c r="E30">
-        <v>0.06220817771129862</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03179717862716105</v>
+      </c>
+      <c r="F30">
+        <v>0.046823837635697</v>
+      </c>
+      <c r="G30">
+        <v>0.008603200654387093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007107330468586993</v>
+        <v>0.04496026430510426</v>
       </c>
       <c r="C31">
-        <v>0.04711013330634979</v>
+        <v>0.03241431286176048</v>
       </c>
       <c r="D31">
-        <v>-0.04135669236060602</v>
+        <v>-0.003170576469865265</v>
       </c>
       <c r="E31">
-        <v>-0.002520489620990623</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006335319478864497</v>
+      </c>
+      <c r="F31">
+        <v>-0.03813521567687869</v>
+      </c>
+      <c r="G31">
+        <v>0.02687230885364515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007292426366695771</v>
+        <v>0.00265572772261938</v>
       </c>
       <c r="C32">
-        <v>0.01432123417723564</v>
+        <v>0.03454655355707166</v>
       </c>
       <c r="D32">
-        <v>-0.006472306270346138</v>
+        <v>0.004324323401254178</v>
       </c>
       <c r="E32">
-        <v>-0.02794961241098536</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007314667387119013</v>
+      </c>
+      <c r="F32">
+        <v>0.0519890174243634</v>
+      </c>
+      <c r="G32">
+        <v>0.0582752145209055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01211955205998217</v>
+        <v>0.02516005428385546</v>
       </c>
       <c r="C33">
-        <v>0.0244298455069564</v>
+        <v>0.04980825735526488</v>
       </c>
       <c r="D33">
-        <v>-0.02174338180050497</v>
+        <v>-0.01442897751262551</v>
       </c>
       <c r="E33">
-        <v>0.0253249474793305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02001699893551</v>
+      </c>
+      <c r="F33">
+        <v>0.02580303797183755</v>
+      </c>
+      <c r="G33">
+        <v>0.03568290603133521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00500567276476291</v>
+        <v>0.04265087146262765</v>
       </c>
       <c r="C34">
-        <v>0.01930028649101296</v>
+        <v>0.05538413822650502</v>
       </c>
       <c r="D34">
-        <v>-0.05082703025179409</v>
+        <v>0.005327284127002792</v>
       </c>
       <c r="E34">
-        <v>-0.0007795887160603109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0107382671648486</v>
+      </c>
+      <c r="F34">
+        <v>0.0186181426084046</v>
+      </c>
+      <c r="G34">
+        <v>0.03818242238785465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01168817082801913</v>
+        <v>0.01107124018791774</v>
       </c>
       <c r="C36">
-        <v>0.0175893055131879</v>
+        <v>0.007661833415940143</v>
       </c>
       <c r="D36">
-        <v>-0.002105116608379933</v>
+        <v>-0.01147594817499818</v>
       </c>
       <c r="E36">
-        <v>-0.00225426899484046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001557191680495123</v>
+      </c>
+      <c r="F36">
+        <v>-0.002618717364312253</v>
+      </c>
+      <c r="G36">
+        <v>0.0249541414940662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006384401514759585</v>
+        <v>0.03109079813569941</v>
       </c>
       <c r="C38">
-        <v>0.02597598546430624</v>
+        <v>0.02670022683168359</v>
       </c>
       <c r="D38">
-        <v>-0.02232471441888608</v>
+        <v>0.007785113753546732</v>
       </c>
       <c r="E38">
-        <v>-0.001269712296370909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003975269280781569</v>
+      </c>
+      <c r="F38">
+        <v>-0.00523103453886767</v>
+      </c>
+      <c r="G38">
+        <v>0.03304202681193938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005862421674573019</v>
+        <v>0.02993303091349156</v>
       </c>
       <c r="C39">
-        <v>-0.01835521990061078</v>
+        <v>0.08187813178588461</v>
       </c>
       <c r="D39">
-        <v>-0.09505528040480749</v>
+        <v>-0.01208033564156242</v>
       </c>
       <c r="E39">
-        <v>0.0171551752587251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01990185984220476</v>
+      </c>
+      <c r="F39">
+        <v>0.03904716295826634</v>
+      </c>
+      <c r="G39">
+        <v>0.02850306273458338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01034300142588339</v>
+        <v>0.02039188549879215</v>
       </c>
       <c r="C40">
-        <v>0.01606327304004301</v>
+        <v>0.03225456345645936</v>
       </c>
       <c r="D40">
-        <v>-0.03848970776046843</v>
+        <v>-0.01294121620718939</v>
       </c>
       <c r="E40">
-        <v>0.0105664506140819</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01741542988085345</v>
+      </c>
+      <c r="F40">
+        <v>0.0194641434022536</v>
+      </c>
+      <c r="G40">
+        <v>0.02523474073566794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005066513121953063</v>
+        <v>0.01258085225009397</v>
       </c>
       <c r="C41">
-        <v>0.02045300937559884</v>
+        <v>-0.0003743946605678051</v>
       </c>
       <c r="D41">
-        <v>0.007471543136152762</v>
+        <v>-0.003570882040741707</v>
       </c>
       <c r="E41">
-        <v>-0.003534465801536484</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002386681748268682</v>
+      </c>
+      <c r="F41">
+        <v>-0.00148625080515475</v>
+      </c>
+      <c r="G41">
+        <v>0.01673137649354806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09441997424519956</v>
+        <v>0.01805438572735249</v>
       </c>
       <c r="C42">
-        <v>0.02669193570862735</v>
+        <v>0.04559818534363401</v>
       </c>
       <c r="D42">
-        <v>-0.2255821687622657</v>
+        <v>-0.09576219849700034</v>
       </c>
       <c r="E42">
-        <v>0.2981597154158134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04280690728810123</v>
+      </c>
+      <c r="F42">
+        <v>-0.04392099783457747</v>
+      </c>
+      <c r="G42">
+        <v>-0.1712304264148063</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005919521899803763</v>
+        <v>0.0277213988861949</v>
       </c>
       <c r="C43">
-        <v>0.01973243818021849</v>
+        <v>0.01024127739251274</v>
       </c>
       <c r="D43">
-        <v>0.01254934648179262</v>
+        <v>-0.00398075275913708</v>
       </c>
       <c r="E43">
-        <v>0.0002398655101715482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003777759962927027</v>
+      </c>
+      <c r="F43">
+        <v>-0.002488909006905608</v>
+      </c>
+      <c r="G43">
+        <v>0.02237001040754664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002806353940100081</v>
+        <v>0.01604645210705944</v>
       </c>
       <c r="C44">
-        <v>-0.002055554355867224</v>
+        <v>0.0498010541113183</v>
       </c>
       <c r="D44">
-        <v>-0.02996996422924049</v>
+        <v>-0.006165208913142484</v>
       </c>
       <c r="E44">
-        <v>-0.0006929501527384744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01603742328230675</v>
+      </c>
+      <c r="F44">
+        <v>0.01006330114633265</v>
+      </c>
+      <c r="G44">
+        <v>0.03876103023934935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01061532227871457</v>
+        <v>0.006465678086337407</v>
       </c>
       <c r="C46">
-        <v>0.0167817663255112</v>
+        <v>0.01769175876705762</v>
       </c>
       <c r="D46">
-        <v>-0.01879167528273005</v>
+        <v>-0.01169624764591407</v>
       </c>
       <c r="E46">
-        <v>0.003891507100654854</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001277946424974236</v>
+      </c>
+      <c r="F46">
+        <v>-0.01402041223561329</v>
+      </c>
+      <c r="G46">
+        <v>0.02649156381636742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001043483706305485</v>
+        <v>0.07289767840899353</v>
       </c>
       <c r="C47">
-        <v>0.06061706644403803</v>
+        <v>0.06647031396799567</v>
       </c>
       <c r="D47">
-        <v>-0.0496701685245988</v>
+        <v>0.005209100318074472</v>
       </c>
       <c r="E47">
-        <v>0.006870275587778234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008535939144149272</v>
+      </c>
+      <c r="F47">
+        <v>-0.0587584161616997</v>
+      </c>
+      <c r="G47">
+        <v>0.02453466983063091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002492161194306999</v>
+        <v>0.02141296269080284</v>
       </c>
       <c r="C48">
-        <v>0.02753018051370975</v>
+        <v>0.01049432197875592</v>
       </c>
       <c r="D48">
-        <v>-0.01196131031909915</v>
+        <v>-0.0008080402873205264</v>
       </c>
       <c r="E48">
-        <v>0.0001950659207205708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002291451912257037</v>
+      </c>
+      <c r="F48">
+        <v>-0.01295852411137934</v>
+      </c>
+      <c r="G48">
+        <v>0.0296829037920921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002296163841674243</v>
+        <v>0.07780731160715999</v>
       </c>
       <c r="C50">
-        <v>0.04971463706634367</v>
+        <v>0.06838582284874126</v>
       </c>
       <c r="D50">
-        <v>-0.06372546276502483</v>
+        <v>0.00371107524379982</v>
       </c>
       <c r="E50">
-        <v>-0.01752760362805834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.009938416753333781</v>
+      </c>
+      <c r="F50">
+        <v>-0.05730257443540784</v>
+      </c>
+      <c r="G50">
+        <v>0.04731603861858717</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006988326322199731</v>
+        <v>0.01109706116105853</v>
       </c>
       <c r="C51">
-        <v>0.02047187794592647</v>
+        <v>0.02735733900051612</v>
       </c>
       <c r="D51">
-        <v>0.01267357955145434</v>
+        <v>-0.00901329992480375</v>
       </c>
       <c r="E51">
-        <v>-0.009903954746255689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006775420311997155</v>
+      </c>
+      <c r="F51">
+        <v>0.0256074529838209</v>
+      </c>
+      <c r="G51">
+        <v>0.05424989354273215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003743507444621659</v>
+        <v>0.09065564817950904</v>
       </c>
       <c r="C53">
-        <v>0.07833187927214506</v>
+        <v>0.08265210836476829</v>
       </c>
       <c r="D53">
-        <v>-0.106449269953446</v>
+        <v>0.005296810898660206</v>
       </c>
       <c r="E53">
-        <v>0.005530074250889681</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03748694869586572</v>
+      </c>
+      <c r="F53">
+        <v>-0.06840217850466047</v>
+      </c>
+      <c r="G53">
+        <v>0.02560682145881179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001105230873695896</v>
+        <v>0.02871402976278013</v>
       </c>
       <c r="C54">
-        <v>0.03532630767134499</v>
+        <v>0.01036872803677222</v>
       </c>
       <c r="D54">
-        <v>0.010850444532691</v>
+        <v>0.002919549110096393</v>
       </c>
       <c r="E54">
-        <v>-0.01201528470221877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002181144968812181</v>
+      </c>
+      <c r="F54">
+        <v>3.887214390717956e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.03491025316366111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001229317290851221</v>
+        <v>0.07085108460970874</v>
       </c>
       <c r="C55">
-        <v>0.05622355473229573</v>
+        <v>0.07500046820475899</v>
       </c>
       <c r="D55">
-        <v>-0.08989955302325293</v>
+        <v>0.00468897931015501</v>
       </c>
       <c r="E55">
-        <v>0.01557318398524914</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02470600623343719</v>
+      </c>
+      <c r="F55">
+        <v>-0.06131881406383913</v>
+      </c>
+      <c r="G55">
+        <v>0.01055120834903546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0003666586120785387</v>
+        <v>0.1403297261464024</v>
       </c>
       <c r="C56">
-        <v>0.0990446379589577</v>
+        <v>0.1069255877329386</v>
       </c>
       <c r="D56">
-        <v>-0.1346886079179378</v>
+        <v>0.01371738068597154</v>
       </c>
       <c r="E56">
-        <v>0.01736849399683541</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03445087909014006</v>
+      </c>
+      <c r="F56">
+        <v>-0.1002393738196336</v>
+      </c>
+      <c r="G56">
+        <v>-0.001578088383611038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0226863275495103</v>
+        <v>0.01077653030329529</v>
       </c>
       <c r="C57">
-        <v>0.01838406368823556</v>
+        <v>0.01068066341184453</v>
       </c>
       <c r="D57">
-        <v>-0.0381599361546747</v>
+        <v>-0.02352894772878507</v>
       </c>
       <c r="E57">
-        <v>0.01224093007790855</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02599706402383688</v>
+      </c>
+      <c r="F57">
+        <v>0.01804556951452316</v>
+      </c>
+      <c r="G57">
+        <v>0.02005544583536361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009485756942882541</v>
+        <v>0.08393093122835614</v>
       </c>
       <c r="C58">
-        <v>0.09047071081493085</v>
+        <v>0.05198464554512038</v>
       </c>
       <c r="D58">
-        <v>-0.09932957698003418</v>
+        <v>-0.01476625389037937</v>
       </c>
       <c r="E58">
-        <v>0.2156255343995694</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9612712421543541</v>
+      </c>
+      <c r="F58">
+        <v>-0.1478202519298661</v>
+      </c>
+      <c r="G58">
+        <v>0.005928526337089939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02411525826191438</v>
+        <v>0.159792246900492</v>
       </c>
       <c r="C59">
-        <v>0.2324332916229975</v>
+        <v>-0.2068107862848626</v>
       </c>
       <c r="D59">
-        <v>0.1806124370230918</v>
+        <v>0.01557640899517534</v>
       </c>
       <c r="E59">
-        <v>-0.008291224225241154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01243637269694457</v>
+      </c>
+      <c r="F59">
+        <v>0.01076951290667341</v>
+      </c>
+      <c r="G59">
+        <v>0.0215094252684466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03001182889409661</v>
+        <v>0.2844539970347036</v>
       </c>
       <c r="C60">
-        <v>0.157566599984178</v>
+        <v>0.1031693217089217</v>
       </c>
       <c r="D60">
-        <v>-0.08223410898129997</v>
+        <v>-0.00989134455717071</v>
       </c>
       <c r="E60">
-        <v>0.05285191527751767</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.03072510139563127</v>
+      </c>
+      <c r="F60">
+        <v>0.3735063921402166</v>
+      </c>
+      <c r="G60">
+        <v>-0.07848635255804426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002768898594342907</v>
+        <v>0.03110975479837128</v>
       </c>
       <c r="C61">
-        <v>0.007373724876352242</v>
+        <v>0.06574371663761984</v>
       </c>
       <c r="D61">
-        <v>-0.06744245151857731</v>
+        <v>-0.005356894834518548</v>
       </c>
       <c r="E61">
-        <v>0.01046624188534161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008107601947696316</v>
+      </c>
+      <c r="F61">
+        <v>0.02079168654478965</v>
+      </c>
+      <c r="G61">
+        <v>0.02659991047857131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007137985811943961</v>
+        <v>0.01101080830712774</v>
       </c>
       <c r="C63">
-        <v>0.007280751275700735</v>
+        <v>0.0287267599729133</v>
       </c>
       <c r="D63">
-        <v>-0.009000870841150799</v>
+        <v>-0.008120702876564847</v>
       </c>
       <c r="E63">
-        <v>-0.007585856234611202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006418213806722105</v>
+      </c>
+      <c r="F63">
+        <v>-0.01908450428615908</v>
+      </c>
+      <c r="G63">
+        <v>0.03626665772526778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00670945724406356</v>
+        <v>0.04872672592378628</v>
       </c>
       <c r="C64">
-        <v>0.03115428032736222</v>
+        <v>0.04035731922326533</v>
       </c>
       <c r="D64">
-        <v>-0.0664754723814574</v>
+        <v>-0.005065073041465346</v>
       </c>
       <c r="E64">
-        <v>0.01339660417415958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.007212078792870963</v>
+      </c>
+      <c r="F64">
+        <v>0.003447568884409908</v>
+      </c>
+      <c r="G64">
+        <v>0.0237429524177347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01741243183725024</v>
+        <v>0.08240865252841897</v>
       </c>
       <c r="C65">
-        <v>0.02680640874131919</v>
+        <v>0.06540454781622874</v>
       </c>
       <c r="D65">
-        <v>-0.0953972934322861</v>
+        <v>-0.01491548985302026</v>
       </c>
       <c r="E65">
-        <v>0.005548499198825858</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01103146074622271</v>
+      </c>
+      <c r="F65">
+        <v>0.0266452072567236</v>
+      </c>
+      <c r="G65">
+        <v>0.01399548289563729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005277125948251104</v>
+        <v>0.05056904199603693</v>
       </c>
       <c r="C66">
-        <v>-0.007884495686541228</v>
+        <v>0.1154698080117339</v>
       </c>
       <c r="D66">
-        <v>-0.1177939968230719</v>
+        <v>-0.01142120544620446</v>
       </c>
       <c r="E66">
-        <v>0.03352929013920846</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02114780616825028</v>
+      </c>
+      <c r="F66">
+        <v>0.04539052286360915</v>
+      </c>
+      <c r="G66">
+        <v>0.020729728448946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001487241792114104</v>
+        <v>0.0539490863188789</v>
       </c>
       <c r="C67">
-        <v>0.04344609669251849</v>
+        <v>0.03206896327772602</v>
       </c>
       <c r="D67">
-        <v>-0.02703281496134124</v>
+        <v>0.006099560469497798</v>
       </c>
       <c r="E67">
-        <v>0.0006013696012654978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00392166838128639</v>
+      </c>
+      <c r="F67">
+        <v>-0.006937952941295406</v>
+      </c>
+      <c r="G67">
+        <v>0.03082561279144375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04173592733608224</v>
+        <v>0.1443809076509439</v>
       </c>
       <c r="C68">
-        <v>0.202716566274282</v>
+        <v>-0.2656183612008735</v>
       </c>
       <c r="D68">
-        <v>0.1750481773378271</v>
+        <v>-0.002280913346474774</v>
       </c>
       <c r="E68">
-        <v>-0.004941211376049087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01345590306894691</v>
+      </c>
+      <c r="F68">
+        <v>-0.03550314499745369</v>
+      </c>
+      <c r="G68">
+        <v>0.02194496700073987</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003370487162015674</v>
+        <v>0.07634311730876835</v>
       </c>
       <c r="C69">
-        <v>0.04490989312075784</v>
+        <v>0.06776167464433099</v>
       </c>
       <c r="D69">
-        <v>-0.05824449263024561</v>
+        <v>0.009100099467363815</v>
       </c>
       <c r="E69">
-        <v>0.003205505691183778</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02817425891525378</v>
+      </c>
+      <c r="F69">
+        <v>-0.04570599759529929</v>
+      </c>
+      <c r="G69">
+        <v>0.02576158315286974</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02937839361744928</v>
+        <v>0.141398751661711</v>
       </c>
       <c r="C71">
-        <v>0.1809613202817771</v>
+        <v>-0.2281299294622314</v>
       </c>
       <c r="D71">
-        <v>0.1570387749634638</v>
+        <v>0.006926768891494947</v>
       </c>
       <c r="E71">
-        <v>-0.01701915796176467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02452334274144312</v>
+      </c>
+      <c r="F71">
+        <v>-0.01009711771297933</v>
+      </c>
+      <c r="G71">
+        <v>0.03231181038749907</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002850865013752969</v>
+        <v>0.08089796062168673</v>
       </c>
       <c r="C72">
-        <v>0.04555778238848723</v>
+        <v>0.07472212994389475</v>
       </c>
       <c r="D72">
-        <v>-0.1391277867235131</v>
+        <v>0.008716758458203539</v>
       </c>
       <c r="E72">
-        <v>0.03731132868861135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01618796971276328</v>
+      </c>
+      <c r="F72">
+        <v>0.03621938920273706</v>
+      </c>
+      <c r="G72">
+        <v>0.006067591763820997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04368555059131539</v>
+        <v>0.3907533568541899</v>
       </c>
       <c r="C73">
-        <v>0.1928588540819526</v>
+        <v>0.1182129736999656</v>
       </c>
       <c r="D73">
-        <v>-0.1463933360785598</v>
+        <v>-0.01512009497339063</v>
       </c>
       <c r="E73">
-        <v>0.1172227360605387</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.01199927668022973</v>
+      </c>
+      <c r="F73">
+        <v>0.5524976580042725</v>
+      </c>
+      <c r="G73">
+        <v>-0.1305260688564853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001458549917644251</v>
+        <v>0.1144944439073964</v>
       </c>
       <c r="C74">
-        <v>0.09043151390886936</v>
+        <v>0.1214302461081446</v>
       </c>
       <c r="D74">
-        <v>-0.1366593572658638</v>
+        <v>0.01049871268210002</v>
       </c>
       <c r="E74">
-        <v>0.02459025047439286</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01934191681630271</v>
+      </c>
+      <c r="F74">
+        <v>-0.08664795180135298</v>
+      </c>
+      <c r="G74">
+        <v>0.03086915167475915</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001006470307043019</v>
+        <v>0.2555470566989894</v>
       </c>
       <c r="C75">
-        <v>0.2202821591358976</v>
+        <v>0.1601670190247834</v>
       </c>
       <c r="D75">
-        <v>-0.2333798943452182</v>
+        <v>0.03146636615694486</v>
       </c>
       <c r="E75">
-        <v>0.05268564522060177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05353728111322065</v>
+      </c>
+      <c r="F75">
+        <v>-0.2123255917301131</v>
+      </c>
+      <c r="G75">
+        <v>-0.04735473142435426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005374611864924636</v>
+        <v>0.1321405218198089</v>
       </c>
       <c r="C76">
-        <v>0.157205952011277</v>
+        <v>0.1281816750032387</v>
       </c>
       <c r="D76">
-        <v>-0.2165321268653558</v>
+        <v>0.0215914380171946</v>
       </c>
       <c r="E76">
-        <v>0.0155010316387274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05034610785763747</v>
+      </c>
+      <c r="F76">
+        <v>-0.144894254338836</v>
+      </c>
+      <c r="G76">
+        <v>0.01072913894577385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0118094991741448</v>
+        <v>0.06160990771283822</v>
       </c>
       <c r="C77">
-        <v>0.01388149135339704</v>
+        <v>0.06568414172926038</v>
       </c>
       <c r="D77">
-        <v>-0.06630848214809111</v>
+        <v>-0.01282940143095939</v>
       </c>
       <c r="E77">
-        <v>0.01066864325004821</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04561534444079497</v>
+      </c>
+      <c r="F77">
+        <v>0.01913225925746246</v>
+      </c>
+      <c r="G77">
+        <v>0.05275288424050666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004071103491511351</v>
+        <v>0.03912404744895956</v>
       </c>
       <c r="C78">
-        <v>0.01378911554360478</v>
+        <v>0.05191428329228593</v>
       </c>
       <c r="D78">
-        <v>-0.06586958366876501</v>
+        <v>-0.005777771914520942</v>
       </c>
       <c r="E78">
-        <v>0.007748183465460613</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01897931413311194</v>
+      </c>
+      <c r="F78">
+        <v>0.04399977272133861</v>
+      </c>
+      <c r="G78">
+        <v>0.03641576154127742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01439602056980618</v>
+        <v>0.05677919959061476</v>
       </c>
       <c r="C80">
-        <v>0.145601799845137</v>
+        <v>0.06714249273042239</v>
       </c>
       <c r="D80">
-        <v>-0.2534071207002938</v>
+        <v>-0.01246436023179936</v>
       </c>
       <c r="E80">
-        <v>-0.8896119961347556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04147050299380262</v>
+      </c>
+      <c r="F80">
+        <v>0.03290450110966631</v>
+      </c>
+      <c r="G80">
+        <v>0.912137066676291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001629984422954612</v>
+        <v>0.1443149442396335</v>
       </c>
       <c r="C81">
-        <v>0.1394017483798139</v>
+        <v>0.09703930987689573</v>
       </c>
       <c r="D81">
-        <v>-0.1537562706390027</v>
+        <v>0.01617689308217936</v>
       </c>
       <c r="E81">
-        <v>0.02565635960927255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02869624256941516</v>
+      </c>
+      <c r="F81">
+        <v>-0.1384873691246633</v>
+      </c>
+      <c r="G81">
+        <v>0.009984398137630284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05266076939499147</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.04050641373378989</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002784028009208898</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02104335325608253</v>
+      </c>
+      <c r="F82">
+        <v>-0.01009694474218565</v>
+      </c>
+      <c r="G82">
+        <v>-0.006287627799043183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006499724573974224</v>
+        <v>0.02777231418810087</v>
       </c>
       <c r="C83">
-        <v>0.02966342310609175</v>
+        <v>0.02182666207642716</v>
       </c>
       <c r="D83">
-        <v>-0.02351599803970808</v>
+        <v>-0.005049007979462004</v>
       </c>
       <c r="E83">
-        <v>0.00812118245133819</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02349328211561624</v>
+      </c>
+      <c r="F83">
+        <v>0.01957954422008552</v>
+      </c>
+      <c r="G83">
+        <v>0.02279334985993403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.00922025115906986</v>
+        <v>0.2300890513499924</v>
       </c>
       <c r="C85">
-        <v>0.1703362718831901</v>
+        <v>0.1560250256901311</v>
       </c>
       <c r="D85">
-        <v>-0.2452856333122906</v>
+        <v>0.01974894159942196</v>
       </c>
       <c r="E85">
-        <v>0.05778489998778246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1009863355751938</v>
+      </c>
+      <c r="F85">
+        <v>-0.191094415259995</v>
+      </c>
+      <c r="G85">
+        <v>-0.06553541382535362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006242556467765689</v>
+        <v>0.01124329188762798</v>
       </c>
       <c r="C86">
-        <v>0.0222481511898209</v>
+        <v>0.0160649280074356</v>
       </c>
       <c r="D86">
-        <v>-0.006557840059071635</v>
+        <v>-0.009637009186978652</v>
       </c>
       <c r="E86">
-        <v>0.02045253998309358</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02682150453489354</v>
+      </c>
+      <c r="F86">
+        <v>0.03782787830791449</v>
+      </c>
+      <c r="G86">
+        <v>0.052803104774456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007210174568740178</v>
+        <v>0.02001913595570877</v>
       </c>
       <c r="C87">
-        <v>0.01129303217388842</v>
+        <v>0.02700988891281558</v>
       </c>
       <c r="D87">
-        <v>-0.03966911233630697</v>
+        <v>-0.0107539685896517</v>
       </c>
       <c r="E87">
-        <v>0.009143966583208252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08372655455596474</v>
+      </c>
+      <c r="F87">
+        <v>0.03642704678763899</v>
+      </c>
+      <c r="G87">
+        <v>0.0461506821223768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02650253397717344</v>
+        <v>0.08936871796168178</v>
       </c>
       <c r="C88">
-        <v>0.04714798573483112</v>
+        <v>0.06405198344416863</v>
       </c>
       <c r="D88">
-        <v>-0.03018964680759755</v>
+        <v>-0.0218883938799135</v>
       </c>
       <c r="E88">
-        <v>0.00840456238422083</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01423134269924766</v>
+      </c>
+      <c r="F88">
+        <v>-0.01271991238748772</v>
+      </c>
+      <c r="G88">
+        <v>0.0225807128000305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05706839472124641</v>
+        <v>0.2364742501501192</v>
       </c>
       <c r="C89">
-        <v>0.3517791067401541</v>
+        <v>-0.3626551001526238</v>
       </c>
       <c r="D89">
-        <v>0.2695349086551134</v>
+        <v>0.007006537723158127</v>
       </c>
       <c r="E89">
-        <v>-0.005153684592264423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01912983061641528</v>
+      </c>
+      <c r="F89">
+        <v>-0.03087475697985696</v>
+      </c>
+      <c r="G89">
+        <v>0.03086216082521774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04241070058099696</v>
+        <v>0.2023272423466774</v>
       </c>
       <c r="C90">
-        <v>0.258268329847977</v>
+        <v>-0.3281021949901621</v>
       </c>
       <c r="D90">
-        <v>0.2504118434536067</v>
+        <v>0.01019690657775057</v>
       </c>
       <c r="E90">
-        <v>-0.002842875049546144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.008136677308708215</v>
+      </c>
+      <c r="F90">
+        <v>-0.0475000598446139</v>
+      </c>
+      <c r="G90">
+        <v>-0.0004635231978070669</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001922326740247937</v>
+        <v>0.202165510383674</v>
       </c>
       <c r="C91">
-        <v>0.1801337831076582</v>
+        <v>0.1436833572003877</v>
       </c>
       <c r="D91">
-        <v>-0.2239438000819607</v>
+        <v>0.02529283810819616</v>
       </c>
       <c r="E91">
-        <v>0.03615970044421012</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07097084185823591</v>
+      </c>
+      <c r="F91">
+        <v>-0.1874335394933368</v>
+      </c>
+      <c r="G91">
+        <v>-0.003709131233997996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.009071875519787363</v>
+        <v>0.2110516336539121</v>
       </c>
       <c r="C92">
-        <v>0.3306412081273507</v>
+        <v>-0.2533738704245345</v>
       </c>
       <c r="D92">
-        <v>0.1231748782318066</v>
+        <v>0.0485952248518606</v>
       </c>
       <c r="E92">
-        <v>0.002825401555232805</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.001142037349165718</v>
+      </c>
+      <c r="F92">
+        <v>-0.1118522084924343</v>
+      </c>
+      <c r="G92">
+        <v>0.06123919728551368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03969311048254413</v>
+        <v>0.2304387116454351</v>
       </c>
       <c r="C93">
-        <v>0.2961514470759195</v>
+        <v>-0.3293535199922428</v>
       </c>
       <c r="D93">
-        <v>0.2519216664469847</v>
+        <v>0.01780594377742059</v>
       </c>
       <c r="E93">
-        <v>0.02035288747665995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.004560032100898213</v>
+      </c>
+      <c r="F93">
+        <v>-0.02780125654648101</v>
+      </c>
+      <c r="G93">
+        <v>-0.002929403730621221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01929836445888797</v>
+        <v>0.2805216766423489</v>
       </c>
       <c r="C94">
-        <v>0.2241044552089174</v>
+        <v>0.1759148066622955</v>
       </c>
       <c r="D94">
-        <v>-0.2154133741352563</v>
+        <v>0.01364042143867369</v>
       </c>
       <c r="E94">
-        <v>0.08159812479020899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.08353914430734759</v>
+      </c>
+      <c r="F94">
+        <v>-0.4218876096384094</v>
+      </c>
+      <c r="G94">
+        <v>-0.136990460481736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006451470472246594</v>
+        <v>0.08689647138356854</v>
       </c>
       <c r="C95">
-        <v>0.04757024268541945</v>
+        <v>0.07956134270089474</v>
       </c>
       <c r="D95">
-        <v>-0.07486738234295359</v>
+        <v>0.007727845670845955</v>
       </c>
       <c r="E95">
-        <v>0.1217428127472778</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06124370060327673</v>
+      </c>
+      <c r="F95">
+        <v>0.1978501940791773</v>
+      </c>
+      <c r="G95">
+        <v>-0.06430906789769612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004833948989910718</v>
+        <v>0.20515501340312</v>
       </c>
       <c r="C98">
-        <v>0.1633356768939573</v>
+        <v>0.05066190087077987</v>
       </c>
       <c r="D98">
-        <v>-0.1065672220691248</v>
+        <v>0.01617993168689106</v>
       </c>
       <c r="E98">
-        <v>0.07383267182724758</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04079493620686721</v>
+      </c>
+      <c r="F98">
+        <v>0.2596284735270465</v>
+      </c>
+      <c r="G98">
+        <v>-0.02882103934546324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007084606793955637</v>
+        <v>0.01335632318166186</v>
       </c>
       <c r="C101">
-        <v>0.01765456960079933</v>
+        <v>0.02141874549102683</v>
       </c>
       <c r="D101">
-        <v>-0.01594754008847851</v>
+        <v>-0.007144539392797336</v>
       </c>
       <c r="E101">
-        <v>-0.005227746353475331</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008435438766704205</v>
+      </c>
+      <c r="F101">
+        <v>-0.01256613964756067</v>
+      </c>
+      <c r="G101">
+        <v>0.03073285476294298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01373086717552476</v>
+        <v>0.120922785440512</v>
       </c>
       <c r="C102">
-        <v>0.1076192965784074</v>
+        <v>0.08582836738238732</v>
       </c>
       <c r="D102">
-        <v>-0.1153407393829659</v>
+        <v>-0.0001862998379985209</v>
       </c>
       <c r="E102">
-        <v>0.02716355457031595</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03535057928705164</v>
+      </c>
+      <c r="F102">
+        <v>-0.05508996511278821</v>
+      </c>
+      <c r="G102">
+        <v>-0.009803069272825267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001800560773258671</v>
+        <v>0.004526937949060224</v>
       </c>
       <c r="C103">
-        <v>0.01696082291107685</v>
+        <v>0.005350012575596202</v>
       </c>
       <c r="D103">
-        <v>-0.02910758162630673</v>
+        <v>-0.0004043330343561118</v>
       </c>
       <c r="E103">
-        <v>-0.01060093431369812</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001954275688231116</v>
+      </c>
+      <c r="F103">
+        <v>-0.009382806411831734</v>
+      </c>
+      <c r="G103">
+        <v>0.01741301201608228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9846782205300877</v>
+        <v>0.03493616521799225</v>
       </c>
       <c r="C104">
-        <v>-0.1084631458788455</v>
+        <v>-0.03866381414110116</v>
       </c>
       <c r="D104">
-        <v>-0.00266504437768768</v>
+        <v>-0.9871553287152844</v>
       </c>
       <c r="E104">
-        <v>-0.02730260667440906</v>
+        <v>0.0349016968760259</v>
+      </c>
+      <c r="F104">
+        <v>-0.04577276453084177</v>
+      </c>
+      <c r="G104">
+        <v>-0.008425615901128169</v>
       </c>
     </row>
   </sheetData>
